--- a/文档/PC命名规范.xlsx
+++ b/文档/PC命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41390EEF-6D1D-4F10-A463-7B2655D4334E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B54D3C-2859-45D9-BCB9-A1B2F5975B7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3204,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F2847-7F35-453C-98E9-9A9AA407229A}">
   <dimension ref="A1:CQ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -3398,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -3504,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -3617,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -3706,6 +3706,9 @@
       <c r="F14" t="s">
         <v>196</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
@@ -3720,7 +3723,10 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
@@ -3736,7 +3742,10 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3752,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3768,7 +3777,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3784,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,9 +3977,7 @@
       <c r="E38" s="1">
         <v>20</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="F38" s="8"/>
       <c r="AD38" s="9"/>
       <c r="AH38"/>
       <c r="BR38" s="6"/>

--- a/文档/PC命名规范.xlsx
+++ b/文档/PC命名规范.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B54D3C-2859-45D9-BCB9-A1B2F5975B7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B5951-9FE1-4D47-9EB6-BFCC384DD872}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,7 +3205,7 @@
   <dimension ref="A1:CQ90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/文档/PC命名规范.xlsx
+++ b/文档/PC命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076B5951-9FE1-4D47-9EB6-BFCC384DD872}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC24186-10B2-4545-869C-07A5E95B36F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,15 +807,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经处理好的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已经处理好的title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,17 +1463,15 @@
       <c r="A10" s="27"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
@@ -1479,59 +1481,57 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
@@ -1541,9 +1541,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
@@ -1553,71 +1559,71 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+    <row r="30" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="29"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
@@ -1644,55 +1650,49 @@
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B44" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
       <c r="B45" s="31"/>
       <c r="C45" s="4" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1700,7 +1700,7 @@
       <c r="B46" s="31"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1713,86 +1713,88 @@
       <c r="A48" s="29"/>
       <c r="B48" s="31"/>
       <c r="C48" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="29"/>
       <c r="B49" s="31"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="B50" s="31"/>
-      <c r="C50" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="29"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="29"/>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="29"/>
+      <c r="B55" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="4" t="s">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1810,8 +1812,12 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
@@ -1838,19 +1844,37 @@
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="26"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A58:A69"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A44:A56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1863,7 +1887,7 @@
   <dimension ref="A1:CT95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E76" sqref="A1:XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3204,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F2847-7F35-453C-98E9-9A9AA407229A}">
   <dimension ref="A1:CQ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3227,7 +3251,7 @@
         <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3344,9 +3368,7 @@
       <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>196</v>
-      </c>
+      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -3397,9 +3419,7 @@
       <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>197</v>
-      </c>
+      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -3450,9 +3470,7 @@
       <c r="E6" s="21">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>196</v>
-      </c>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -3503,9 +3521,7 @@
       <c r="E7" s="21">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>197</v>
-      </c>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -3556,9 +3572,7 @@
       <c r="E8" s="21">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>196</v>
-      </c>
+      <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -3616,9 +3630,7 @@
       <c r="E10" s="21">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
-        <v>197</v>
-      </c>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -3678,9 +3690,6 @@
       <c r="E12" s="20">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
@@ -3703,12 +3712,6 @@
       <c r="E14" s="21">
         <v>9</v>
       </c>
-      <c r="F14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
@@ -3722,12 +3725,6 @@
       <c r="E15" s="20">
         <v>10</v>
       </c>
-      <c r="F15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
@@ -3741,12 +3738,6 @@
       <c r="E16" s="21">
         <v>11</v>
       </c>
-      <c r="F16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
@@ -3760,9 +3751,6 @@
       <c r="E17" s="21">
         <v>12</v>
       </c>
-      <c r="F17" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="42"/>
@@ -3776,9 +3764,6 @@
       <c r="E18" s="21">
         <v>13</v>
       </c>
-      <c r="F18" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="42"/>
@@ -3791,9 +3776,6 @@
       </c>
       <c r="E19" s="21">
         <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3882,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD35" s="9"/>
       <c r="AH35"/>
@@ -3926,7 +3908,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD36" s="9"/>
       <c r="AH36"/>
@@ -3952,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD37" s="9"/>
       <c r="AH37"/>
@@ -4002,7 +3984,7 @@
         <v>21</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD39" s="9"/>
       <c r="AH39"/>
@@ -4028,7 +4010,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:95" x14ac:dyDescent="0.2">

--- a/文档/PC命名规范.xlsx
+++ b/文档/PC命名规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC24186-10B2-4545-869C-07A5E95B36F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542CCF6-9A47-4B88-88F4-90CBC62444B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="200">
   <si>
     <t>已经采用的命名（规定：尽量采用中横线-）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,15 +811,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经处理好的title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>switch-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经处理好的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1371,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1468,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,7 +1888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E31FACA-44B0-4A99-8D4F-12DAC9933780}">
-  <dimension ref="A1:CT95"/>
+  <dimension ref="A1:CU95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -1896,21 +1900,21 @@
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="30.875" customWidth="1"/>
     <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
-    <col min="9" max="9" width="38.125" style="8" customWidth="1"/>
-    <col min="37" max="37" width="47.25" style="9" customWidth="1"/>
-    <col min="77" max="98" width="9" style="6"/>
+    <col min="5" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="38.125" style="8" customWidth="1"/>
+    <col min="38" max="38" width="47.25" style="9" customWidth="1"/>
+    <col min="78" max="99" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>57</v>
       </c>
@@ -1922,11 +1926,13 @@
         <v>25</v>
       </c>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
       <c r="G2"/>
-      <c r="H2" s="8"/>
+      <c r="H2"/>
       <c r="I2" s="8"/>
-      <c r="J2"/>
+      <c r="J2" s="8"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1940,8 +1946,8 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-      <c r="AK2" s="10"/>
-      <c r="BY2" s="6"/>
+      <c r="X2"/>
+      <c r="AL2" s="10"/>
       <c r="BZ2" s="6"/>
       <c r="CA2" s="6"/>
       <c r="CB2" s="6"/>
@@ -1963,8 +1969,9 @@
       <c r="CR2" s="6"/>
       <c r="CS2" s="6"/>
       <c r="CT2" s="6"/>
-    </row>
-    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CU2" s="6"/>
+    </row>
+    <row r="3" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1988,8 +1995,8 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-      <c r="AK3" s="10"/>
-      <c r="BY3" s="6"/>
+      <c r="X3"/>
+      <c r="AL3" s="10"/>
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
       <c r="CB3" s="6"/>
@@ -2011,8 +2018,9 @@
       <c r="CR3" s="6"/>
       <c r="CS3" s="6"/>
       <c r="CT3" s="6"/>
-    </row>
-    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CU3" s="6"/>
+    </row>
+    <row r="4" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
         <v>26</v>
@@ -2024,7 +2032,9 @@
         <v>28</v>
       </c>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -2042,8 +2052,8 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
-      <c r="AK4" s="10"/>
-      <c r="BY4" s="6"/>
+      <c r="X4"/>
+      <c r="AL4" s="10"/>
       <c r="BZ4" s="6"/>
       <c r="CA4" s="6"/>
       <c r="CB4" s="6"/>
@@ -2065,8 +2075,9 @@
       <c r="CR4" s="6"/>
       <c r="CS4" s="6"/>
       <c r="CT4" s="6"/>
-    </row>
-    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CU4" s="6"/>
+    </row>
+    <row r="5" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -2076,13 +2087,15 @@
         <v>30</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -2098,8 +2111,8 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="AK5" s="10"/>
-      <c r="BY5" s="6"/>
+      <c r="X5"/>
+      <c r="AL5" s="10"/>
       <c r="BZ5" s="6"/>
       <c r="CA5" s="6"/>
       <c r="CB5" s="6"/>
@@ -2121,8 +2134,9 @@
       <c r="CR5" s="6"/>
       <c r="CS5" s="6"/>
       <c r="CT5" s="6"/>
-    </row>
-    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CU5" s="6"/>
+    </row>
+    <row r="6" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -2132,13 +2146,15 @@
         <v>39</v>
       </c>
       <c r="E6"/>
-      <c r="F6" s="20" t="s">
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -2154,8 +2170,8 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="AK6" s="10"/>
-      <c r="BY6" s="6"/>
+      <c r="X6"/>
+      <c r="AL6" s="10"/>
       <c r="BZ6" s="6"/>
       <c r="CA6" s="6"/>
       <c r="CB6" s="6"/>
@@ -2177,8 +2193,9 @@
       <c r="CR6" s="6"/>
       <c r="CS6" s="6"/>
       <c r="CT6" s="6"/>
-    </row>
-    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CU6" s="6"/>
+    </row>
+    <row r="7" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -2188,7 +2205,9 @@
         <v>40</v>
       </c>
       <c r="E7"/>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -2206,8 +2225,8 @@
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="AK7" s="10"/>
-      <c r="BY7" s="6"/>
+      <c r="X7"/>
+      <c r="AL7" s="10"/>
       <c r="BZ7" s="6"/>
       <c r="CA7" s="6"/>
       <c r="CB7" s="6"/>
@@ -2229,8 +2248,9 @@
       <c r="CR7" s="6"/>
       <c r="CS7" s="6"/>
       <c r="CT7" s="6"/>
-    </row>
-    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CU7" s="6"/>
+    </row>
+    <row r="8" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -2240,7 +2260,9 @@
         <v>41</v>
       </c>
       <c r="E8"/>
-      <c r="F8"/>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -2258,8 +2280,8 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
-      <c r="AK8" s="10"/>
-      <c r="BY8" s="6"/>
+      <c r="X8"/>
+      <c r="AL8" s="10"/>
       <c r="BZ8" s="6"/>
       <c r="CA8" s="6"/>
       <c r="CB8" s="6"/>
@@ -2281,24 +2303,25 @@
       <c r="CR8" s="6"/>
       <c r="CS8" s="6"/>
       <c r="CT8" s="6"/>
-    </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU8" s="6"/>
+    </row>
+    <row r="9" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
         <v>35</v>
@@ -2308,12 +2331,14 @@
         <v>42</v>
       </c>
       <c r="E10"/>
-      <c r="F10" s="20"/>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -2328,8 +2353,8 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
-      <c r="AK10" s="10"/>
-      <c r="BY10" s="6"/>
+      <c r="X10"/>
+      <c r="AL10" s="10"/>
       <c r="BZ10" s="6"/>
       <c r="CA10" s="6"/>
       <c r="CB10" s="6"/>
@@ -2351,22 +2376,23 @@
       <c r="CR10" s="6"/>
       <c r="CS10" s="6"/>
       <c r="CT10" s="6"/>
-    </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU10" s="6"/>
+    </row>
+    <row r="11" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
@@ -2375,26 +2401,29 @@
       <c r="D12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="I12" s="20"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="I13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
@@ -2405,14 +2434,17 @@
       <c r="D14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -2421,14 +2453,17 @@
       <c r="D15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -2437,10 +2472,13 @@
       <c r="D16" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="H16"/>
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
       <c r="I16"/>
-    </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -2452,10 +2490,11 @@
       <c r="E17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="F17" s="13"/>
+      <c r="H17" s="8"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
@@ -2464,8 +2503,11 @@
       <c r="D18" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -2474,8 +2516,11 @@
       <c r="D19" s="21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -2484,14 +2529,17 @@
       <c r="D20" s="21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
@@ -2503,26 +2551,27 @@
       <c r="E22" s="18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:98" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>32</v>
@@ -2536,7 +2585,6 @@
       <c r="E26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -2554,8 +2602,8 @@
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
-      <c r="AK26" s="11"/>
-      <c r="BY26" s="6"/>
+      <c r="X26"/>
+      <c r="AL26" s="11"/>
       <c r="BZ26" s="6"/>
       <c r="CA26" s="6"/>
       <c r="CB26" s="6"/>
@@ -2577,8 +2625,9 @@
       <c r="CR26" s="6"/>
       <c r="CS26" s="6"/>
       <c r="CT26" s="6"/>
-    </row>
-    <row r="27" spans="1:98" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CU26" s="6"/>
+    </row>
+    <row r="27" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -2590,7 +2639,6 @@
       <c r="E27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -2608,8 +2656,8 @@
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
-      <c r="AK27" s="11"/>
-      <c r="BY27" s="6"/>
+      <c r="X27"/>
+      <c r="AL27" s="11"/>
       <c r="BZ27" s="6"/>
       <c r="CA27" s="6"/>
       <c r="CB27" s="6"/>
@@ -2631,8 +2679,9 @@
       <c r="CR27" s="6"/>
       <c r="CS27" s="6"/>
       <c r="CT27" s="6"/>
-    </row>
-    <row r="30" spans="1:98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CU27" s="6"/>
+    </row>
+    <row r="30" spans="1:99" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>58</v>
       </c>
@@ -2644,37 +2693,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A31" s="35"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A33" s="35"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A34" s="35"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>170</v>
       </c>
@@ -2686,20 +2735,21 @@
         <v>144</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="H38"/>
+      <c r="F38" s="8"/>
       <c r="I38"/>
-      <c r="AG38" s="9"/>
-      <c r="AK38"/>
-      <c r="BU38" s="6"/>
+      <c r="J38"/>
+      <c r="AH38" s="9"/>
+      <c r="AL38"/>
       <c r="BV38" s="6"/>
       <c r="BW38" s="6"/>
       <c r="BX38" s="6"/>
-      <c r="CQ38"/>
+      <c r="BY38" s="6"/>
       <c r="CR38"/>
       <c r="CS38"/>
       <c r="CT38"/>
-    </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU38"/>
+    </row>
+    <row r="39" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -2709,20 +2759,21 @@
         <v>140</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="H39"/>
+      <c r="F39" s="8"/>
       <c r="I39"/>
-      <c r="AG39" s="9"/>
-      <c r="AK39"/>
-      <c r="BU39" s="6"/>
+      <c r="J39"/>
+      <c r="AH39" s="9"/>
+      <c r="AL39"/>
       <c r="BV39" s="6"/>
       <c r="BW39" s="6"/>
       <c r="BX39" s="6"/>
-      <c r="CQ39"/>
+      <c r="BY39" s="6"/>
       <c r="CR39"/>
       <c r="CS39"/>
       <c r="CT39"/>
-    </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU39"/>
+    </row>
+    <row r="40" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
@@ -2732,20 +2783,21 @@
         <v>141</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="H40"/>
+      <c r="F40" s="8"/>
       <c r="I40"/>
-      <c r="AG40" s="9"/>
-      <c r="AK40"/>
-      <c r="BU40" s="6"/>
+      <c r="J40"/>
+      <c r="AH40" s="9"/>
+      <c r="AL40"/>
       <c r="BV40" s="6"/>
       <c r="BW40" s="6"/>
       <c r="BX40" s="6"/>
-      <c r="CQ40"/>
+      <c r="BY40" s="6"/>
       <c r="CR40"/>
       <c r="CS40"/>
       <c r="CT40"/>
-    </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU40"/>
+    </row>
+    <row r="41" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
@@ -2755,20 +2807,21 @@
         <v>142</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="H41"/>
+      <c r="F41" s="8"/>
       <c r="I41"/>
-      <c r="AG41" s="9"/>
-      <c r="AK41"/>
-      <c r="BU41" s="6"/>
+      <c r="J41"/>
+      <c r="AH41" s="9"/>
+      <c r="AL41"/>
       <c r="BV41" s="6"/>
       <c r="BW41" s="6"/>
       <c r="BX41" s="6"/>
-      <c r="CQ41"/>
+      <c r="BY41" s="6"/>
       <c r="CR41"/>
       <c r="CS41"/>
       <c r="CT41"/>
-    </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU41"/>
+    </row>
+    <row r="42" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -2778,20 +2831,21 @@
         <v>143</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="H42"/>
+      <c r="F42" s="8"/>
       <c r="I42"/>
-      <c r="AG42" s="9"/>
-      <c r="AK42"/>
-      <c r="BU42" s="6"/>
+      <c r="J42"/>
+      <c r="AH42" s="9"/>
+      <c r="AL42"/>
       <c r="BV42" s="6"/>
       <c r="BW42" s="6"/>
       <c r="BX42" s="6"/>
-      <c r="CQ42"/>
+      <c r="BY42" s="6"/>
       <c r="CR42"/>
       <c r="CS42"/>
       <c r="CT42"/>
-    </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="CU42"/>
+    </row>
+    <row r="43" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="3"/>
       <c r="C43" s="12" t="s">
@@ -2801,7 +2855,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="3"/>
       <c r="C44" s="12" t="s">
@@ -2810,9 +2864,9 @@
       <c r="D44" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16" t="s">
@@ -2822,13 +2876,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="3" t="s">
         <v>150</v>
@@ -2840,7 +2894,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
@@ -2976,240 +3030,240 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="83" spans="3:98" x14ac:dyDescent="0.2">
-      <c r="H83"/>
+    <row r="83" spans="3:99" x14ac:dyDescent="0.2">
       <c r="I83"/>
-      <c r="AF83" s="9"/>
-      <c r="AK83"/>
-      <c r="BT83" s="6"/>
+      <c r="J83"/>
+      <c r="AG83" s="9"/>
+      <c r="AL83"/>
       <c r="BU83" s="6"/>
       <c r="BV83" s="6"/>
       <c r="BW83" s="6"/>
       <c r="BX83" s="6"/>
-      <c r="CP83"/>
+      <c r="BY83" s="6"/>
       <c r="CQ83"/>
       <c r="CR83"/>
       <c r="CS83"/>
       <c r="CT83"/>
-    </row>
-    <row r="84" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU83"/>
+    </row>
+    <row r="84" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
-      <c r="H84"/>
       <c r="I84"/>
-      <c r="AF84" s="9"/>
-      <c r="AK84"/>
-      <c r="BT84" s="6"/>
+      <c r="J84"/>
+      <c r="AG84" s="9"/>
+      <c r="AL84"/>
       <c r="BU84" s="6"/>
       <c r="BV84" s="6"/>
       <c r="BW84" s="6"/>
       <c r="BX84" s="6"/>
-      <c r="CP84"/>
+      <c r="BY84" s="6"/>
       <c r="CQ84"/>
       <c r="CR84"/>
       <c r="CS84"/>
       <c r="CT84"/>
-    </row>
-    <row r="85" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU84"/>
+    </row>
+    <row r="85" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
-      <c r="H85"/>
       <c r="I85"/>
-      <c r="AF85" s="9"/>
-      <c r="AK85"/>
-      <c r="BT85" s="6"/>
+      <c r="J85"/>
+      <c r="AG85" s="9"/>
+      <c r="AL85"/>
       <c r="BU85" s="6"/>
       <c r="BV85" s="6"/>
       <c r="BW85" s="6"/>
       <c r="BX85" s="6"/>
-      <c r="CP85"/>
+      <c r="BY85" s="6"/>
       <c r="CQ85"/>
       <c r="CR85"/>
       <c r="CS85"/>
       <c r="CT85"/>
-    </row>
-    <row r="86" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU85"/>
+    </row>
+    <row r="86" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
-      <c r="H86"/>
       <c r="I86"/>
-      <c r="AF86" s="9"/>
-      <c r="AK86"/>
-      <c r="BT86" s="6"/>
+      <c r="J86"/>
+      <c r="AG86" s="9"/>
+      <c r="AL86"/>
       <c r="BU86" s="6"/>
       <c r="BV86" s="6"/>
       <c r="BW86" s="6"/>
       <c r="BX86" s="6"/>
-      <c r="CP86"/>
+      <c r="BY86" s="6"/>
       <c r="CQ86"/>
       <c r="CR86"/>
       <c r="CS86"/>
       <c r="CT86"/>
-    </row>
-    <row r="87" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU86"/>
+    </row>
+    <row r="87" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="H87"/>
       <c r="I87"/>
-      <c r="AF87" s="9"/>
-      <c r="AK87"/>
-      <c r="BT87" s="6"/>
+      <c r="J87"/>
+      <c r="AG87" s="9"/>
+      <c r="AL87"/>
       <c r="BU87" s="6"/>
       <c r="BV87" s="6"/>
       <c r="BW87" s="6"/>
       <c r="BX87" s="6"/>
-      <c r="CP87"/>
+      <c r="BY87" s="6"/>
       <c r="CQ87"/>
       <c r="CR87"/>
       <c r="CS87"/>
       <c r="CT87"/>
-    </row>
-    <row r="88" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU87"/>
+    </row>
+    <row r="88" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="H88"/>
       <c r="I88"/>
-      <c r="AF88" s="9"/>
-      <c r="AK88"/>
-      <c r="BT88" s="6"/>
+      <c r="J88"/>
+      <c r="AG88" s="9"/>
+      <c r="AL88"/>
       <c r="BU88" s="6"/>
       <c r="BV88" s="6"/>
       <c r="BW88" s="6"/>
       <c r="BX88" s="6"/>
-      <c r="CP88"/>
+      <c r="BY88" s="6"/>
       <c r="CQ88"/>
       <c r="CR88"/>
       <c r="CS88"/>
       <c r="CT88"/>
-    </row>
-    <row r="89" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU88"/>
+    </row>
+    <row r="89" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="H89"/>
       <c r="I89"/>
-      <c r="AF89" s="9"/>
-      <c r="AK89"/>
-      <c r="BT89" s="6"/>
+      <c r="J89"/>
+      <c r="AG89" s="9"/>
+      <c r="AL89"/>
       <c r="BU89" s="6"/>
       <c r="BV89" s="6"/>
       <c r="BW89" s="6"/>
       <c r="BX89" s="6"/>
-      <c r="CP89"/>
+      <c r="BY89" s="6"/>
       <c r="CQ89"/>
       <c r="CR89"/>
       <c r="CS89"/>
       <c r="CT89"/>
-    </row>
-    <row r="90" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU89"/>
+    </row>
+    <row r="90" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
-      <c r="H90"/>
       <c r="I90"/>
-      <c r="AF90" s="9"/>
-      <c r="AH90" t="s">
+      <c r="J90"/>
+      <c r="AG90" s="9"/>
+      <c r="AI90" t="s">
         <v>86</v>
       </c>
-      <c r="AK90"/>
-      <c r="BT90" s="6"/>
+      <c r="AL90"/>
       <c r="BU90" s="6"/>
       <c r="BV90" s="6"/>
       <c r="BW90" s="6"/>
       <c r="BX90" s="6"/>
-      <c r="CP90"/>
+      <c r="BY90" s="6"/>
       <c r="CQ90"/>
       <c r="CR90"/>
       <c r="CS90"/>
       <c r="CT90"/>
-    </row>
-    <row r="91" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU90"/>
+    </row>
+    <row r="91" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
-      <c r="H91"/>
       <c r="I91"/>
-      <c r="AF91" s="9"/>
-      <c r="AK91"/>
-      <c r="BT91" s="6"/>
+      <c r="J91"/>
+      <c r="AG91" s="9"/>
+      <c r="AL91"/>
       <c r="BU91" s="6"/>
       <c r="BV91" s="6"/>
       <c r="BW91" s="6"/>
       <c r="BX91" s="6"/>
-      <c r="CP91"/>
+      <c r="BY91" s="6"/>
       <c r="CQ91"/>
       <c r="CR91"/>
       <c r="CS91"/>
       <c r="CT91"/>
-    </row>
-    <row r="92" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU91"/>
+    </row>
+    <row r="92" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
-      <c r="H92"/>
       <c r="I92"/>
-      <c r="AF92" s="9"/>
-      <c r="AK92"/>
-      <c r="BT92" s="6"/>
+      <c r="J92"/>
+      <c r="AG92" s="9"/>
+      <c r="AL92"/>
       <c r="BU92" s="6"/>
       <c r="BV92" s="6"/>
       <c r="BW92" s="6"/>
       <c r="BX92" s="6"/>
-      <c r="CP92"/>
+      <c r="BY92" s="6"/>
       <c r="CQ92"/>
       <c r="CR92"/>
       <c r="CS92"/>
       <c r="CT92"/>
-    </row>
-    <row r="93" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU92"/>
+    </row>
+    <row r="93" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
-      <c r="H93"/>
       <c r="I93"/>
-      <c r="AF93" s="9"/>
-      <c r="AK93"/>
-      <c r="BT93" s="6"/>
+      <c r="J93"/>
+      <c r="AG93" s="9"/>
+      <c r="AL93"/>
       <c r="BU93" s="6"/>
       <c r="BV93" s="6"/>
       <c r="BW93" s="6"/>
       <c r="BX93" s="6"/>
-      <c r="CP93"/>
+      <c r="BY93" s="6"/>
       <c r="CQ93"/>
       <c r="CR93"/>
       <c r="CS93"/>
       <c r="CT93"/>
-    </row>
-    <row r="94" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU93"/>
+    </row>
+    <row r="94" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="H94"/>
       <c r="I94"/>
-      <c r="AF94" s="9"/>
-      <c r="AK94"/>
-      <c r="BT94" s="6"/>
+      <c r="J94"/>
+      <c r="AG94" s="9"/>
+      <c r="AL94"/>
       <c r="BU94" s="6"/>
       <c r="BV94" s="6"/>
       <c r="BW94" s="6"/>
       <c r="BX94" s="6"/>
-      <c r="CP94"/>
+      <c r="BY94" s="6"/>
       <c r="CQ94"/>
       <c r="CR94"/>
       <c r="CS94"/>
       <c r="CT94"/>
-    </row>
-    <row r="95" spans="3:98" x14ac:dyDescent="0.2">
+      <c r="CU94"/>
+    </row>
+    <row r="95" spans="3:99" x14ac:dyDescent="0.2">
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="H95"/>
       <c r="I95"/>
-      <c r="AF95" s="9"/>
-      <c r="AK95"/>
-      <c r="BT95" s="6"/>
+      <c r="J95"/>
+      <c r="AG95" s="9"/>
+      <c r="AL95"/>
       <c r="BU95" s="6"/>
       <c r="BV95" s="6"/>
       <c r="BW95" s="6"/>
       <c r="BX95" s="6"/>
-      <c r="CP95"/>
+      <c r="BY95" s="6"/>
       <c r="CQ95"/>
       <c r="CR95"/>
       <c r="CS95"/>
       <c r="CT95"/>
+      <c r="CU95"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3228,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F2847-7F35-453C-98E9-9A9AA407229A}">
   <dimension ref="A1:CQ90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3251,7 +3305,7 @@
         <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3269,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -3368,7 +3422,9 @@
       <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -3419,7 +3475,9 @@
       <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -3470,7 +3528,9 @@
       <c r="E6" s="21">
         <v>4</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -3521,7 +3581,9 @@
       <c r="E7" s="21">
         <v>5</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -3572,7 +3634,9 @@
       <c r="E8" s="21">
         <v>6</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -3630,7 +3694,9 @@
       <c r="E10" s="21">
         <v>7</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -3690,6 +3756,9 @@
       <c r="E12" s="20">
         <v>8</v>
       </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
@@ -3712,6 +3781,9 @@
       <c r="E14" s="21">
         <v>9</v>
       </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
@@ -3725,6 +3797,9 @@
       <c r="E15" s="20">
         <v>10</v>
       </c>
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
@@ -3738,6 +3813,9 @@
       <c r="E16" s="21">
         <v>11</v>
       </c>
+      <c r="F16" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
@@ -3751,6 +3829,9 @@
       <c r="E17" s="21">
         <v>12</v>
       </c>
+      <c r="F17" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="42"/>
@@ -3764,6 +3845,9 @@
       <c r="E18" s="21">
         <v>13</v>
       </c>
+      <c r="F18" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="42"/>
@@ -3776,6 +3860,9 @@
       </c>
       <c r="E19" s="21">
         <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">

--- a/文档/PC命名规范.xlsx
+++ b/文档/PC命名规范.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542CCF6-9A47-4B88-88F4-90CBC62444B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27141608-3477-4D3D-A80F-26A6044E9659}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3282,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F2847-7F35-453C-98E9-9A9AA407229A}">
   <dimension ref="A1:CQ90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/文档/PC命名规范.xlsx
+++ b/文档/PC命名规范.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27141608-3477-4D3D-A80F-26A6044E9659}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEABC3D-0883-4121-97EC-232BD6B81A5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="285" windowWidth="16500" windowHeight="12810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC-css命名规范" sheetId="2" r:id="rId1"/>
@@ -811,19 +811,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>switch-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>switch-</t>
+    <t>已经处理好的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经处理好的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36053F4-C900-4A28-B8FA-E784E6E3D2C3}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1468,7 +1468,7 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1891,7 +1891,7 @@
   <dimension ref="A1:CU95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>48</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>50</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -2402,7 +2402,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2435,7 +2435,7 @@
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -2454,7 +2454,7 @@
         <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -2473,7 +2473,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -2504,7 +2504,7 @@
         <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:99" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.2">
@@ -2530,7 +2530,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.2">
@@ -3282,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F2847-7F35-453C-98E9-9A9AA407229A}">
   <dimension ref="A1:CQ90"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3305,7 +3305,7 @@
         <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -3529,7 +3529,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -3582,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -3635,7 +3635,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -3695,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -3757,7 +3757,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
@@ -3782,7 +3782,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
@@ -3798,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3846,7 +3846,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
